--- a/artfynd/A 18289-2019.xlsx
+++ b/artfynd/A 18289-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY13"/>
+  <dimension ref="A1:AY17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2110,6 +2110,458 @@
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>112201331</v>
+      </c>
+      <c r="B14" t="n">
+        <v>90658</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>531944.4384348277</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6554005.230760631</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>15:46</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>15:46</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>112201510</v>
+      </c>
+      <c r="B15" t="n">
+        <v>88899</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>3286</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Flattoppad klubbsvamp</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Clavariadelphus truncatus</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Quél.) Donk</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>531944.4384348277</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6554005.230760631</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>15:52</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>15:52</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>112202051</v>
+      </c>
+      <c r="B16" t="n">
+        <v>90660</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>4362</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Blå taggsvamp</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Hydnellum caeruleum</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>531944.4384348277</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6554005.230760631</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>16:02</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>16:02</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>112202353</v>
+      </c>
+      <c r="B17" t="n">
+        <v>90659</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>786</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Brandtaggsvamp</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Hydnellum auratile</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(Britzelm.) Maas Geest.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>532058.0605805111</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6553947.659028449</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>16:52</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>16:52</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 18289-2019.xlsx
+++ b/artfynd/A 18289-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY17"/>
+  <dimension ref="A1:AY19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2225,10 +2225,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112201510</v>
+        <v>112202051</v>
       </c>
       <c r="B15" t="n">
-        <v>88899</v>
+        <v>90660</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2241,21 +2241,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3286</v>
+        <v>4362</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>15:52</t>
+          <t>16:02</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>15:52</t>
+          <t>16:02</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2338,10 +2338,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112202051</v>
+        <v>112201510</v>
       </c>
       <c r="B16" t="n">
-        <v>90660</v>
+        <v>88899</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2354,21 +2354,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4362</v>
+        <v>3286</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2414,7 +2414,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>16:02</t>
+          <t>15:52</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>16:02</t>
+          <t>15:52</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2562,6 +2562,212 @@
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>112222262</v>
+      </c>
+      <c r="B18" t="n">
+        <v>85265</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1988</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Kryddspindling</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Cortinarius percomis</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Fr.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>531985</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6553981</v>
+      </c>
+      <c r="S18" t="n">
+        <v>25</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>112222199</v>
+      </c>
+      <c r="B19" t="n">
+        <v>90379</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>5836</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Guldkremla</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Russula aurea</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Pers.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>531985</v>
+      </c>
+      <c r="R19" t="n">
+        <v>6553981</v>
+      </c>
+      <c r="S19" t="n">
+        <v>25</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 18289-2019.xlsx
+++ b/artfynd/A 18289-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY19"/>
+  <dimension ref="A1:AY64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2112,7 +2112,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112201331</v>
+        <v>112202053</v>
       </c>
       <c r="B14" t="n">
         <v>90658</v>
@@ -2153,10 +2153,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>531944.4384348277</v>
+        <v>531944</v>
       </c>
       <c r="R14" t="n">
-        <v>6554005.230760631</v>
+        <v>6554005</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>15:46</t>
+          <t>16:02</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>15:46</t>
+          <t>16:02</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2225,10 +2225,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112202051</v>
+        <v>112201510</v>
       </c>
       <c r="B15" t="n">
-        <v>90660</v>
+        <v>88899</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2241,21 +2241,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4362</v>
+        <v>3286</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2266,10 +2266,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>531944.4384348277</v>
+        <v>531944</v>
       </c>
       <c r="R15" t="n">
-        <v>6554005.230760631</v>
+        <v>6554005</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>16:02</t>
+          <t>15:52</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>16:02</t>
+          <t>15:52</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2338,10 +2338,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112201510</v>
+        <v>112202353</v>
       </c>
       <c r="B16" t="n">
-        <v>88899</v>
+        <v>90659</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2350,25 +2350,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3286</v>
+        <v>786</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Brandtaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hydnellum auratile</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Britzelm.) Maas Geest.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2379,10 +2379,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>531944.4384348277</v>
+        <v>532058</v>
       </c>
       <c r="R16" t="n">
-        <v>6554005.230760631</v>
+        <v>6553948</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2414,7 +2414,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>15:52</t>
+          <t>16:52</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>15:52</t>
+          <t>16:52</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2451,10 +2451,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112202353</v>
+        <v>112201397</v>
       </c>
       <c r="B17" t="n">
-        <v>90659</v>
+        <v>90660</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2463,25 +2463,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>786</v>
+        <v>4362</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Brandtaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum auratile</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Britzelm.) Maas Geest.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2492,10 +2492,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>532058.0605805111</v>
+        <v>531944</v>
       </c>
       <c r="R17" t="n">
-        <v>6553947.659028449</v>
+        <v>6554005</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>16:52</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2537,7 +2537,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>16:52</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2768,6 +2768,5094 @@
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>112241965</v>
+      </c>
+      <c r="B20" t="n">
+        <v>90659</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>786</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Brandtaggsvamp</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Hydnellum auratile</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(Britzelm.) Maas Geest.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>531987</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6553869</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>09:08</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>09:08</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>112243095</v>
+      </c>
+      <c r="B21" t="n">
+        <v>88899</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>3286</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Flattoppad klubbsvamp</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Clavariadelphus truncatus</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Quél.) Donk</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>531959</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6554023</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>112243843</v>
+      </c>
+      <c r="B22" t="n">
+        <v>90678</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>4366</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Hydnellum peckii</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>532049</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6553974</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>112243877</v>
+      </c>
+      <c r="B23" t="n">
+        <v>90660</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>4362</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Blå taggsvamp</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Hydnellum caeruleum</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>532032</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6553976</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>112243623</v>
+      </c>
+      <c r="B24" t="n">
+        <v>90659</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>786</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Brandtaggsvamp</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Hydnellum auratile</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(Britzelm.) Maas Geest.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>532009</v>
+      </c>
+      <c r="R24" t="n">
+        <v>6553956</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>112243288</v>
+      </c>
+      <c r="B25" t="n">
+        <v>88899</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>3286</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Flattoppad klubbsvamp</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Clavariadelphus truncatus</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(Quél.) Donk</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>531986</v>
+      </c>
+      <c r="R25" t="n">
+        <v>6554001</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>112244329</v>
+      </c>
+      <c r="B26" t="n">
+        <v>96369</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>219862</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Nästrot</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Neottia nidus-avis</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>531956</v>
+      </c>
+      <c r="R26" t="n">
+        <v>6553998</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>08:36</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>08:36</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>112242868</v>
+      </c>
+      <c r="B27" t="n">
+        <v>90658</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>531922</v>
+      </c>
+      <c r="R27" t="n">
+        <v>6553998</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>09:33</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>09:33</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>112242900</v>
+      </c>
+      <c r="B28" t="n">
+        <v>88899</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>3286</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Flattoppad klubbsvamp</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Clavariadelphus truncatus</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(Quél.) Donk</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>531930</v>
+      </c>
+      <c r="R28" t="n">
+        <v>6554013</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>09:33</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>09:33</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>112242935</v>
+      </c>
+      <c r="B29" t="n">
+        <v>90660</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>4362</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Blå taggsvamp</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Hydnellum caeruleum</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>531939</v>
+      </c>
+      <c r="R29" t="n">
+        <v>6554024</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>09:33</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>09:33</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>112243771</v>
+      </c>
+      <c r="B30" t="n">
+        <v>88899</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>3286</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Flattoppad klubbsvamp</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Clavariadelphus truncatus</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(Quél.) Donk</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>532051</v>
+      </c>
+      <c r="R30" t="n">
+        <v>6553962</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>112243314</v>
+      </c>
+      <c r="B31" t="n">
+        <v>90659</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>786</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Brandtaggsvamp</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Hydnellum auratile</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(Britzelm.) Maas Geest.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>531986</v>
+      </c>
+      <c r="R31" t="n">
+        <v>6554002</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>112243620</v>
+      </c>
+      <c r="B32" t="n">
+        <v>88899</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>3286</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Flattoppad klubbsvamp</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Clavariadelphus truncatus</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>(Quél.) Donk</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>532009</v>
+      </c>
+      <c r="R32" t="n">
+        <v>6553956</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>112243645</v>
+      </c>
+      <c r="B33" t="n">
+        <v>90658</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>531993</v>
+      </c>
+      <c r="R33" t="n">
+        <v>6553966</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>112243857</v>
+      </c>
+      <c r="B34" t="n">
+        <v>90659</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>786</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Brandtaggsvamp</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Hydnellum auratile</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>(Britzelm.) Maas Geest.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>532049</v>
+      </c>
+      <c r="R34" t="n">
+        <v>6553974</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>112243107</v>
+      </c>
+      <c r="B35" t="n">
+        <v>90659</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>786</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Brandtaggsvamp</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Hydnellum auratile</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>(Britzelm.) Maas Geest.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>531959</v>
+      </c>
+      <c r="R35" t="n">
+        <v>6554009</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>112242004</v>
+      </c>
+      <c r="B36" t="n">
+        <v>88899</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>3286</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Flattoppad klubbsvamp</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Clavariadelphus truncatus</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>(Quél.) Donk</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>531987</v>
+      </c>
+      <c r="R36" t="n">
+        <v>6553873</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>09:08</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>09:08</t>
+        </is>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>112242906</v>
+      </c>
+      <c r="B37" t="n">
+        <v>90660</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>4362</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Blå taggsvamp</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Hydnellum caeruleum</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>531930</v>
+      </c>
+      <c r="R37" t="n">
+        <v>6554013</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>09:33</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>09:33</t>
+        </is>
+      </c>
+      <c r="AD37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX37" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>112243283</v>
+      </c>
+      <c r="B38" t="n">
+        <v>90687</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>5964</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Fjällig taggsvamp s.str.</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Sarcodon imbricatus s.str.</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>531986</v>
+      </c>
+      <c r="R38" t="n">
+        <v>6554001</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="AD38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>112244141</v>
+      </c>
+      <c r="B39" t="n">
+        <v>85313</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>3739</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Persiljespindling</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Cortinarius sulfurinus</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Quél.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>531979</v>
+      </c>
+      <c r="R39" t="n">
+        <v>6553956</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="AD39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX39" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>112253553</v>
+      </c>
+      <c r="B40" t="n">
+        <v>88956</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>5747</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Läderdoftande fingersvamp</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Ramaria safraniolens</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Christian</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>532001</v>
+      </c>
+      <c r="R40" t="n">
+        <v>6553934</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX40" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>112243591</v>
+      </c>
+      <c r="B41" t="n">
+        <v>90658</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>531991</v>
+      </c>
+      <c r="R41" t="n">
+        <v>6553984</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="AD41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT41" t="inlineStr"/>
+      <c r="AW41" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX41" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>112243794</v>
+      </c>
+      <c r="B42" t="n">
+        <v>90658</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>532049</v>
+      </c>
+      <c r="R42" t="n">
+        <v>6553974</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="AD42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT42" t="inlineStr"/>
+      <c r="AW42" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX42" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>112241984</v>
+      </c>
+      <c r="B43" t="n">
+        <v>88899</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>3286</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Flattoppad klubbsvamp</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Clavariadelphus truncatus</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>(Quél.) Donk</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>531987</v>
+      </c>
+      <c r="R43" t="n">
+        <v>6553869</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>09:08</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>09:08</t>
+        </is>
+      </c>
+      <c r="AD43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT43" t="inlineStr"/>
+      <c r="AW43" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX43" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>112242794</v>
+      </c>
+      <c r="B44" t="n">
+        <v>90658</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>531920</v>
+      </c>
+      <c r="R44" t="n">
+        <v>6553954</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>09:33</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>09:33</t>
+        </is>
+      </c>
+      <c r="AD44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT44" t="inlineStr"/>
+      <c r="AW44" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX44" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>112244302</v>
+      </c>
+      <c r="B45" t="n">
+        <v>85265</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>1988</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Kryddspindling</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Cortinarius percomis</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Fr.</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>531975</v>
+      </c>
+      <c r="R45" t="n">
+        <v>6553885</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="AD45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT45" t="inlineStr"/>
+      <c r="AW45" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX45" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>112242912</v>
+      </c>
+      <c r="B46" t="n">
+        <v>90658</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>531926</v>
+      </c>
+      <c r="R46" t="n">
+        <v>6554001</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>09:33</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>09:33</t>
+        </is>
+      </c>
+      <c r="AD46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT46" t="inlineStr"/>
+      <c r="AW46" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX46" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>112242043</v>
+      </c>
+      <c r="B47" t="n">
+        <v>90379</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>5836</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Guldkremla</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Russula aurea</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Pers.</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>531966</v>
+      </c>
+      <c r="R47" t="n">
+        <v>6553892</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>09:08</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>09:08</t>
+        </is>
+      </c>
+      <c r="AD47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT47" t="inlineStr"/>
+      <c r="AW47" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX47" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>112241593</v>
+      </c>
+      <c r="B48" t="n">
+        <v>90710</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>5449</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Svart taggsvamp</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Phellodon niger</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>532011</v>
+      </c>
+      <c r="R48" t="n">
+        <v>6553969</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>08:48</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>08:48</t>
+        </is>
+      </c>
+      <c r="AD48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT48" t="inlineStr"/>
+      <c r="AW48" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX48" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>112243066</v>
+      </c>
+      <c r="B49" t="n">
+        <v>88858</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>4188</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Fransig jordstjärna</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Geastrum fimbriatum</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Fr.:Pers.</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>531959</v>
+      </c>
+      <c r="R49" t="n">
+        <v>6554023</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="AD49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT49" t="inlineStr"/>
+      <c r="AW49" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX49" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>112242850</v>
+      </c>
+      <c r="B50" t="n">
+        <v>88899</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>3286</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Flattoppad klubbsvamp</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Clavariadelphus truncatus</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>(Quél.) Donk</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>531924</v>
+      </c>
+      <c r="R50" t="n">
+        <v>6554001</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>09:33</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>09:33</t>
+        </is>
+      </c>
+      <c r="AD50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT50" t="inlineStr"/>
+      <c r="AW50" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX50" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>112242916</v>
+      </c>
+      <c r="B51" t="n">
+        <v>90659</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>786</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Brandtaggsvamp</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Hydnellum auratile</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>(Britzelm.) Maas Geest.</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>531925</v>
+      </c>
+      <c r="R51" t="n">
+        <v>6554005</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>09:33</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>09:33</t>
+        </is>
+      </c>
+      <c r="AD51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT51" t="inlineStr"/>
+      <c r="AW51" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX51" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>112241951</v>
+      </c>
+      <c r="B52" t="n">
+        <v>90662</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>4363</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Zontaggsvamp</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Hydnellum concrescens</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>(Pers.) Banker</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>531987</v>
+      </c>
+      <c r="R52" t="n">
+        <v>6553869</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>09:08</t>
+        </is>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>09:08</t>
+        </is>
+      </c>
+      <c r="AD52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT52" t="inlineStr"/>
+      <c r="AW52" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX52" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>112243105</v>
+      </c>
+      <c r="B53" t="n">
+        <v>90658</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>531959</v>
+      </c>
+      <c r="R53" t="n">
+        <v>6554009</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="AD53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT53" t="inlineStr"/>
+      <c r="AW53" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX53" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>112243161</v>
+      </c>
+      <c r="B54" t="n">
+        <v>88899</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>3286</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Flattoppad klubbsvamp</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Clavariadelphus truncatus</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>(Quél.) Donk</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>531972</v>
+      </c>
+      <c r="R54" t="n">
+        <v>6554005</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="AD54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT54" t="inlineStr"/>
+      <c r="AW54" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX54" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>112243267</v>
+      </c>
+      <c r="B55" t="n">
+        <v>90658</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>531986</v>
+      </c>
+      <c r="R55" t="n">
+        <v>6554001</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="AD55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT55" t="inlineStr"/>
+      <c r="AW55" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX55" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>112243148</v>
+      </c>
+      <c r="B56" t="n">
+        <v>88899</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>3286</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Flattoppad klubbsvamp</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Clavariadelphus truncatus</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>(Quél.) Donk</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>531988</v>
+      </c>
+      <c r="R56" t="n">
+        <v>6553995</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="AD56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT56" t="inlineStr"/>
+      <c r="AW56" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX56" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>112242936</v>
+      </c>
+      <c r="B57" t="n">
+        <v>88899</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>3286</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Flattoppad klubbsvamp</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Clavariadelphus truncatus</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>(Quél.) Donk</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>531939</v>
+      </c>
+      <c r="R57" t="n">
+        <v>6554024</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>09:33</t>
+        </is>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>09:33</t>
+        </is>
+      </c>
+      <c r="AD57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT57" t="inlineStr"/>
+      <c r="AW57" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX57" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>112242810</v>
+      </c>
+      <c r="B58" t="n">
+        <v>88899</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>3286</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Flattoppad klubbsvamp</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Clavariadelphus truncatus</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>(Quél.) Donk</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>531928</v>
+      </c>
+      <c r="R58" t="n">
+        <v>6553976</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>09:33</t>
+        </is>
+      </c>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>09:33</t>
+        </is>
+      </c>
+      <c r="AD58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT58" t="inlineStr"/>
+      <c r="AW58" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX58" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>112242046</v>
+      </c>
+      <c r="B59" t="n">
+        <v>88899</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>3286</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Flattoppad klubbsvamp</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Clavariadelphus truncatus</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>(Quél.) Donk</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>531970</v>
+      </c>
+      <c r="R59" t="n">
+        <v>6553890</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>09:08</t>
+        </is>
+      </c>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>09:08</t>
+        </is>
+      </c>
+      <c r="AD59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT59" t="inlineStr"/>
+      <c r="AW59" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX59" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>112243114</v>
+      </c>
+      <c r="B60" t="n">
+        <v>90687</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>5964</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Fjällig taggsvamp s.str.</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Sarcodon imbricatus s.str.</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>531959</v>
+      </c>
+      <c r="R60" t="n">
+        <v>6554009</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="AA60" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="AD60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT60" t="inlineStr"/>
+      <c r="AW60" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX60" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>112243011</v>
+      </c>
+      <c r="B61" t="n">
+        <v>90659</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>786</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Brandtaggsvamp</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Hydnellum auratile</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>(Britzelm.) Maas Geest.</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>531965</v>
+      </c>
+      <c r="R61" t="n">
+        <v>6554014</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z61" t="inlineStr">
+        <is>
+          <t>09:59</t>
+        </is>
+      </c>
+      <c r="AA61" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>09:59</t>
+        </is>
+      </c>
+      <c r="AD61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT61" t="inlineStr"/>
+      <c r="AW61" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX61" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>112242889</v>
+      </c>
+      <c r="B62" t="n">
+        <v>90709</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>5448</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Svartvit taggsvamp</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Phellodon connatus</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>531922</v>
+      </c>
+      <c r="R62" t="n">
+        <v>6553998</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z62" t="inlineStr">
+        <is>
+          <t>09:33</t>
+        </is>
+      </c>
+      <c r="AA62" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>09:33</t>
+        </is>
+      </c>
+      <c r="AD62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT62" t="inlineStr"/>
+      <c r="AW62" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX62" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>112242947</v>
+      </c>
+      <c r="B63" t="n">
+        <v>90678</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>4366</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Hydnellum peckii</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>531939</v>
+      </c>
+      <c r="R63" t="n">
+        <v>6554024</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>09:33</t>
+        </is>
+      </c>
+      <c r="AA63" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>09:33</t>
+        </is>
+      </c>
+      <c r="AD63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT63" t="inlineStr"/>
+      <c r="AW63" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX63" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>112243471</v>
+      </c>
+      <c r="B64" t="n">
+        <v>88899</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>3286</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Flattoppad klubbsvamp</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Clavariadelphus truncatus</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>(Quél.) Donk</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>532010</v>
+      </c>
+      <c r="R64" t="n">
+        <v>6553982</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z64" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="AA64" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="AD64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT64" t="inlineStr"/>
+      <c r="AW64" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX64" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY64" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 18289-2019.xlsx
+++ b/artfynd/A 18289-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY64"/>
+  <dimension ref="A1:AY65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2112,10 +2112,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112202053</v>
+        <v>112201331</v>
       </c>
       <c r="B14" t="n">
-        <v>90658</v>
+        <v>90792</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>16:02</t>
+          <t>15:46</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>16:02</t>
+          <t>15:46</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2228,7 +2228,7 @@
         <v>112201510</v>
       </c>
       <c r="B15" t="n">
-        <v>88899</v>
+        <v>89033</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2338,10 +2338,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112202353</v>
+        <v>112201397</v>
       </c>
       <c r="B16" t="n">
-        <v>90659</v>
+        <v>90794</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2350,25 +2350,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>786</v>
+        <v>4362</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Brandtaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum auratile</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Britzelm.) Maas Geest.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2379,10 +2379,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>532058</v>
+        <v>531944</v>
       </c>
       <c r="R16" t="n">
-        <v>6553948</v>
+        <v>6554005</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2414,7 +2414,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>16:52</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>16:52</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2451,10 +2451,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112201397</v>
+        <v>112202353</v>
       </c>
       <c r="B17" t="n">
-        <v>90660</v>
+        <v>90793</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2463,25 +2463,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4362</v>
+        <v>786</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Brandtaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum auratile</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Britzelm.) Maas Geest.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2492,10 +2492,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>531944</v>
+        <v>532058</v>
       </c>
       <c r="R17" t="n">
-        <v>6554005</v>
+        <v>6553948</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>16:52</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2537,7 +2537,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>16:52</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2564,10 +2564,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112222262</v>
+        <v>112222199</v>
       </c>
       <c r="B18" t="n">
-        <v>85265</v>
+        <v>90513</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2580,21 +2580,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1988</v>
+        <v>5836</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Kryddspindling</t>
+          <t>Guldkremla</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Cortinarius percomis</t>
+          <t>Russula aurea</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>Pers.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2667,10 +2667,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112222199</v>
+        <v>112222262</v>
       </c>
       <c r="B19" t="n">
-        <v>90379</v>
+        <v>85386</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2683,21 +2683,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5836</v>
+        <v>1988</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Guldkremla</t>
+          <t>Kryddspindling</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Russula aurea</t>
+          <t>Cortinarius percomis</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Pers.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2770,10 +2770,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112241965</v>
+        <v>112243771</v>
       </c>
       <c r="B20" t="n">
-        <v>90659</v>
+        <v>89033</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2782,25 +2782,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>786</v>
+        <v>3286</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Brandtaggsvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum auratile</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Britzelm.) Maas Geest.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2811,10 +2811,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>531987</v>
+        <v>532051</v>
       </c>
       <c r="R20" t="n">
-        <v>6553869</v>
+        <v>6553962</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2846,7 +2846,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2883,10 +2883,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112243095</v>
+        <v>112241965</v>
       </c>
       <c r="B21" t="n">
-        <v>88899</v>
+        <v>90793</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2895,25 +2895,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3286</v>
+        <v>786</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Brandtaggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hydnellum auratile</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Britzelm.) Maas Geest.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2924,10 +2924,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>531959</v>
+        <v>531987</v>
       </c>
       <c r="R21" t="n">
-        <v>6554023</v>
+        <v>6553869</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2996,10 +2996,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112243843</v>
+        <v>112241593</v>
       </c>
       <c r="B22" t="n">
-        <v>90678</v>
+        <v>90844</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3008,25 +3008,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4366</v>
+        <v>5449</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3037,10 +3037,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>532049</v>
+        <v>532011</v>
       </c>
       <c r="R22" t="n">
-        <v>6553974</v>
+        <v>6553969</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>08:48</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>08:48</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3109,10 +3109,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112243877</v>
+        <v>112243105</v>
       </c>
       <c r="B23" t="n">
-        <v>90660</v>
+        <v>90792</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3125,21 +3125,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3150,10 +3150,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>532032</v>
+        <v>531959</v>
       </c>
       <c r="R23" t="n">
-        <v>6553976</v>
+        <v>6554009</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3222,10 +3222,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112243623</v>
+        <v>112241951</v>
       </c>
       <c r="B24" t="n">
-        <v>90659</v>
+        <v>90796</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3234,25 +3234,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>786</v>
+        <v>4363</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Brandtaggsvamp</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hydnellum auratile</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Britzelm.) Maas Geest.</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>532009</v>
+        <v>531987</v>
       </c>
       <c r="R24" t="n">
-        <v>6553956</v>
+        <v>6553869</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3298,7 +3298,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3308,7 +3308,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3335,10 +3335,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112243288</v>
+        <v>112243011</v>
       </c>
       <c r="B25" t="n">
-        <v>88899</v>
+        <v>90793</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3347,25 +3347,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3286</v>
+        <v>786</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Brandtaggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hydnellum auratile</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Britzelm.) Maas Geest.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3376,10 +3376,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>531986</v>
+        <v>531965</v>
       </c>
       <c r="R25" t="n">
-        <v>6554001</v>
+        <v>6554014</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3448,10 +3448,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112244329</v>
+        <v>112243857</v>
       </c>
       <c r="B26" t="n">
-        <v>96369</v>
+        <v>90793</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3460,52 +3460,39 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>219862</v>
+        <v>786</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Brandtaggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Hydnellum auratile</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
+          <t>(Britzelm.) Maas Geest.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Skogalund (Skogalund), Nrk</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>531956</v>
+        <v>532049</v>
       </c>
       <c r="R26" t="n">
-        <v>6553998</v>
+        <v>6553974</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3537,7 +3524,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>08:36</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3547,7 +3534,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>08:36</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3574,10 +3561,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112242868</v>
+        <v>112244302</v>
       </c>
       <c r="B27" t="n">
-        <v>90658</v>
+        <v>85386</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3586,25 +3573,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4361</v>
+        <v>1988</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Kryddspindling</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Cortinarius percomis</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3615,10 +3602,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>531922</v>
+        <v>531975</v>
       </c>
       <c r="R27" t="n">
-        <v>6553998</v>
+        <v>6553885</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3650,7 +3637,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3660,7 +3647,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3687,10 +3674,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112242900</v>
+        <v>112243843</v>
       </c>
       <c r="B28" t="n">
-        <v>88899</v>
+        <v>90812</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3699,25 +3686,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3286</v>
+        <v>4366</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3728,10 +3715,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>531930</v>
+        <v>532049</v>
       </c>
       <c r="R28" t="n">
-        <v>6554013</v>
+        <v>6553974</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -3763,7 +3750,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3773,7 +3760,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3800,10 +3787,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112242935</v>
+        <v>112242916</v>
       </c>
       <c r="B29" t="n">
-        <v>90660</v>
+        <v>90793</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3812,25 +3799,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4362</v>
+        <v>786</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Brandtaggsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum auratile</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Britzelm.) Maas Geest.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3841,10 +3828,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>531939</v>
+        <v>531925</v>
       </c>
       <c r="R29" t="n">
-        <v>6554024</v>
+        <v>6554005</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -3913,10 +3900,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112243771</v>
+        <v>112243095</v>
       </c>
       <c r="B30" t="n">
-        <v>88899</v>
+        <v>89033</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3954,10 +3941,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>532051</v>
+        <v>531959</v>
       </c>
       <c r="R30" t="n">
-        <v>6553962</v>
+        <v>6554023</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -4026,10 +4013,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112243314</v>
+        <v>112243620</v>
       </c>
       <c r="B31" t="n">
-        <v>90659</v>
+        <v>89033</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4038,25 +4025,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>786</v>
+        <v>3286</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Brandtaggsvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hydnellum auratile</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Britzelm.) Maas Geest.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4067,10 +4054,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>531986</v>
+        <v>532009</v>
       </c>
       <c r="R31" t="n">
-        <v>6554002</v>
+        <v>6553956</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4139,10 +4126,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112243620</v>
+        <v>112243148</v>
       </c>
       <c r="B32" t="n">
-        <v>88899</v>
+        <v>89033</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4180,10 +4167,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>532009</v>
+        <v>531988</v>
       </c>
       <c r="R32" t="n">
-        <v>6553956</v>
+        <v>6553995</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4252,10 +4239,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112243645</v>
+        <v>112242046</v>
       </c>
       <c r="B33" t="n">
-        <v>90658</v>
+        <v>89033</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4268,21 +4255,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4361</v>
+        <v>3286</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4293,10 +4280,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>531993</v>
+        <v>531970</v>
       </c>
       <c r="R33" t="n">
-        <v>6553966</v>
+        <v>6553890</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4328,7 +4315,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4338,7 +4325,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4365,10 +4352,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112243857</v>
+        <v>112242906</v>
       </c>
       <c r="B34" t="n">
-        <v>90659</v>
+        <v>90794</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4377,25 +4364,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>786</v>
+        <v>4362</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Brandtaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hydnellum auratile</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Britzelm.) Maas Geest.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4406,10 +4393,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>532049</v>
+        <v>531930</v>
       </c>
       <c r="R34" t="n">
-        <v>6553974</v>
+        <v>6554013</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4441,7 +4428,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4451,7 +4438,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4478,10 +4465,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112243107</v>
+        <v>112242043</v>
       </c>
       <c r="B35" t="n">
-        <v>90659</v>
+        <v>90513</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4490,25 +4477,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>786</v>
+        <v>5836</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Brandtaggsvamp</t>
+          <t>Guldkremla</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hydnellum auratile</t>
+          <t>Russula aurea</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Britzelm.) Maas Geest.</t>
+          <t>Pers.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4519,10 +4506,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>531959</v>
+        <v>531966</v>
       </c>
       <c r="R35" t="n">
-        <v>6554009</v>
+        <v>6553892</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4554,7 +4541,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4564,7 +4551,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4591,10 +4578,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112242004</v>
+        <v>112243107</v>
       </c>
       <c r="B36" t="n">
-        <v>88899</v>
+        <v>90793</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4603,25 +4590,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3286</v>
+        <v>786</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Brandtaggsvamp</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hydnellum auratile</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Britzelm.) Maas Geest.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4632,10 +4619,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>531987</v>
+        <v>531959</v>
       </c>
       <c r="R36" t="n">
-        <v>6553873</v>
+        <v>6554009</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4667,7 +4654,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4677,7 +4664,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4704,10 +4691,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112242906</v>
+        <v>112242900</v>
       </c>
       <c r="B37" t="n">
-        <v>90660</v>
+        <v>89033</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4720,21 +4707,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4362</v>
+        <v>3286</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4817,10 +4804,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112243283</v>
+        <v>112243114</v>
       </c>
       <c r="B38" t="n">
-        <v>90687</v>
+        <v>90821</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4858,10 +4845,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>531986</v>
+        <v>531959</v>
       </c>
       <c r="R38" t="n">
-        <v>6554001</v>
+        <v>6554009</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -4930,10 +4917,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112244141</v>
+        <v>112243314</v>
       </c>
       <c r="B39" t="n">
-        <v>85313</v>
+        <v>90793</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4942,25 +4929,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>3739</v>
+        <v>786</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Persiljespindling</t>
+          <t>Brandtaggsvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Cortinarius sulfurinus</t>
+          <t>Hydnellum auratile</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Quél.</t>
+          <t>(Britzelm.) Maas Geest.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4971,10 +4958,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>531979</v>
+        <v>531986</v>
       </c>
       <c r="R39" t="n">
-        <v>6553956</v>
+        <v>6554002</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -5043,10 +5030,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112253553</v>
+        <v>112244141</v>
       </c>
       <c r="B40" t="n">
-        <v>88956</v>
+        <v>85434</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5055,25 +5042,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5747</v>
+        <v>3739</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Persiljespindling</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Cortinarius sulfurinus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>Quél.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5084,10 +5071,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>532001</v>
+        <v>531979</v>
       </c>
       <c r="R40" t="n">
-        <v>6553934</v>
+        <v>6553956</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -5117,9 +5104,19 @@
           <t>2023-09-22</t>
         </is>
       </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
       <c r="AA40" t="inlineStr">
         <is>
           <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5146,10 +5143,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112243591</v>
+        <v>112243794</v>
       </c>
       <c r="B41" t="n">
-        <v>90658</v>
+        <v>90792</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5187,10 +5184,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>531991</v>
+        <v>532049</v>
       </c>
       <c r="R41" t="n">
-        <v>6553984</v>
+        <v>6553974</v>
       </c>
       <c r="S41" t="n">
         <v>5</v>
@@ -5259,10 +5256,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112243794</v>
+        <v>112242794</v>
       </c>
       <c r="B42" t="n">
-        <v>90658</v>
+        <v>90792</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5300,10 +5297,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>532049</v>
+        <v>531920</v>
       </c>
       <c r="R42" t="n">
-        <v>6553974</v>
+        <v>6553954</v>
       </c>
       <c r="S42" t="n">
         <v>5</v>
@@ -5335,7 +5332,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5345,7 +5342,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5372,10 +5369,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112241984</v>
+        <v>112242850</v>
       </c>
       <c r="B43" t="n">
-        <v>88899</v>
+        <v>89033</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5413,10 +5410,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>531987</v>
+        <v>531924</v>
       </c>
       <c r="R43" t="n">
-        <v>6553869</v>
+        <v>6554001</v>
       </c>
       <c r="S43" t="n">
         <v>5</v>
@@ -5448,7 +5445,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5458,7 +5455,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5485,10 +5482,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>112242794</v>
+        <v>112243161</v>
       </c>
       <c r="B44" t="n">
-        <v>90658</v>
+        <v>89033</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5501,21 +5498,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>4361</v>
+        <v>3286</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5526,10 +5523,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>531920</v>
+        <v>531972</v>
       </c>
       <c r="R44" t="n">
-        <v>6553954</v>
+        <v>6554005</v>
       </c>
       <c r="S44" t="n">
         <v>5</v>
@@ -5561,7 +5558,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5571,7 +5568,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5598,10 +5595,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>112244302</v>
+        <v>112243877</v>
       </c>
       <c r="B45" t="n">
-        <v>85265</v>
+        <v>90794</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5610,25 +5607,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1988</v>
+        <v>4362</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Kryddspindling</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Cortinarius percomis</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5639,10 +5636,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>531975</v>
+        <v>532032</v>
       </c>
       <c r="R45" t="n">
-        <v>6553885</v>
+        <v>6553976</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
@@ -5711,10 +5708,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>112242912</v>
+        <v>112243283</v>
       </c>
       <c r="B46" t="n">
-        <v>90658</v>
+        <v>90821</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5723,25 +5720,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>4361</v>
+        <v>5964</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5752,7 +5749,7 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>531926</v>
+        <v>531986</v>
       </c>
       <c r="R46" t="n">
         <v>6554001</v>
@@ -5787,7 +5784,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5797,7 +5794,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5824,10 +5821,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>112242043</v>
+        <v>112242947</v>
       </c>
       <c r="B47" t="n">
-        <v>90379</v>
+        <v>90812</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5840,21 +5837,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5836</v>
+        <v>4366</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Guldkremla</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Russula aurea</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Pers.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5865,10 +5862,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>531966</v>
+        <v>531939</v>
       </c>
       <c r="R47" t="n">
-        <v>6553892</v>
+        <v>6554024</v>
       </c>
       <c r="S47" t="n">
         <v>5</v>
@@ -5900,7 +5897,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5910,7 +5907,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5937,10 +5934,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112241593</v>
+        <v>112242935</v>
       </c>
       <c r="B48" t="n">
-        <v>90710</v>
+        <v>90794</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5953,21 +5950,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5449</v>
+        <v>4362</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5978,10 +5975,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>532011</v>
+        <v>531939</v>
       </c>
       <c r="R48" t="n">
-        <v>6553969</v>
+        <v>6554024</v>
       </c>
       <c r="S48" t="n">
         <v>5</v>
@@ -6013,7 +6010,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>08:48</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -6023,7 +6020,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>08:48</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6050,10 +6047,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>112243066</v>
+        <v>112253553</v>
       </c>
       <c r="B49" t="n">
-        <v>88858</v>
+        <v>89090</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6062,25 +6059,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4188</v>
+        <v>5747</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Fransig jordstjärna</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Geastrum fimbriatum</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Fr.:Pers.</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6091,10 +6088,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>531959</v>
+        <v>532001</v>
       </c>
       <c r="R49" t="n">
-        <v>6554023</v>
+        <v>6553934</v>
       </c>
       <c r="S49" t="n">
         <v>5</v>
@@ -6124,19 +6121,9 @@
           <t>2023-09-22</t>
         </is>
       </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>10:05</t>
-        </is>
-      </c>
       <c r="AA49" t="inlineStr">
         <is>
           <t>2023-09-22</t>
-        </is>
-      </c>
-      <c r="AB49" t="inlineStr">
-        <is>
-          <t>10:05</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6163,10 +6150,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>112242850</v>
+        <v>112243645</v>
       </c>
       <c r="B50" t="n">
-        <v>88899</v>
+        <v>90792</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6179,21 +6166,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3286</v>
+        <v>4361</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6204,10 +6191,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>531924</v>
+        <v>531993</v>
       </c>
       <c r="R50" t="n">
-        <v>6554001</v>
+        <v>6553966</v>
       </c>
       <c r="S50" t="n">
         <v>5</v>
@@ -6239,7 +6226,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6249,7 +6236,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6276,10 +6263,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>112242916</v>
+        <v>112243267</v>
       </c>
       <c r="B51" t="n">
-        <v>90659</v>
+        <v>90792</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6288,25 +6275,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>786</v>
+        <v>4361</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Brandtaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Hydnellum auratile</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Britzelm.) Maas Geest.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6317,10 +6304,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>531925</v>
+        <v>531986</v>
       </c>
       <c r="R51" t="n">
-        <v>6554005</v>
+        <v>6554001</v>
       </c>
       <c r="S51" t="n">
         <v>5</v>
@@ -6352,7 +6339,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6362,7 +6349,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6389,10 +6376,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>112241951</v>
+        <v>112242868</v>
       </c>
       <c r="B52" t="n">
-        <v>90662</v>
+        <v>90792</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6401,25 +6388,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>4363</v>
+        <v>4361</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6430,10 +6417,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>531987</v>
+        <v>531922</v>
       </c>
       <c r="R52" t="n">
-        <v>6553869</v>
+        <v>6553998</v>
       </c>
       <c r="S52" t="n">
         <v>5</v>
@@ -6465,7 +6452,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6475,7 +6462,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6502,10 +6489,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>112243105</v>
+        <v>112243591</v>
       </c>
       <c r="B53" t="n">
-        <v>90658</v>
+        <v>90792</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6543,10 +6530,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>531959</v>
+        <v>531991</v>
       </c>
       <c r="R53" t="n">
-        <v>6554009</v>
+        <v>6553984</v>
       </c>
       <c r="S53" t="n">
         <v>5</v>
@@ -6615,10 +6602,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>112243161</v>
+        <v>112242810</v>
       </c>
       <c r="B54" t="n">
-        <v>88899</v>
+        <v>89033</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6656,10 +6643,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>531972</v>
+        <v>531928</v>
       </c>
       <c r="R54" t="n">
-        <v>6554005</v>
+        <v>6553976</v>
       </c>
       <c r="S54" t="n">
         <v>5</v>
@@ -6691,7 +6678,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6701,7 +6688,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6728,10 +6715,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>112243267</v>
+        <v>112241984</v>
       </c>
       <c r="B55" t="n">
-        <v>90658</v>
+        <v>89033</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6744,21 +6731,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>4361</v>
+        <v>3286</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6769,10 +6756,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>531986</v>
+        <v>531987</v>
       </c>
       <c r="R55" t="n">
-        <v>6554001</v>
+        <v>6553869</v>
       </c>
       <c r="S55" t="n">
         <v>5</v>
@@ -6804,7 +6791,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6814,7 +6801,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6841,10 +6828,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>112243148</v>
+        <v>112242004</v>
       </c>
       <c r="B56" t="n">
-        <v>88899</v>
+        <v>89033</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6882,10 +6869,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>531988</v>
+        <v>531987</v>
       </c>
       <c r="R56" t="n">
-        <v>6553995</v>
+        <v>6553873</v>
       </c>
       <c r="S56" t="n">
         <v>5</v>
@@ -6917,7 +6904,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -6927,7 +6914,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6954,10 +6941,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>112242936</v>
+        <v>112243623</v>
       </c>
       <c r="B57" t="n">
-        <v>88899</v>
+        <v>90793</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6966,25 +6953,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>3286</v>
+        <v>786</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Brandtaggsvamp</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hydnellum auratile</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Britzelm.) Maas Geest.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6995,10 +6982,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>531939</v>
+        <v>532009</v>
       </c>
       <c r="R57" t="n">
-        <v>6554024</v>
+        <v>6553956</v>
       </c>
       <c r="S57" t="n">
         <v>5</v>
@@ -7030,7 +7017,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -7040,7 +7027,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7067,10 +7054,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>112242810</v>
+        <v>112243288</v>
       </c>
       <c r="B58" t="n">
-        <v>88899</v>
+        <v>89033</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7108,10 +7095,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>531928</v>
+        <v>531986</v>
       </c>
       <c r="R58" t="n">
-        <v>6553976</v>
+        <v>6554001</v>
       </c>
       <c r="S58" t="n">
         <v>5</v>
@@ -7143,7 +7130,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -7153,7 +7140,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7180,10 +7167,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>112242046</v>
+        <v>112242912</v>
       </c>
       <c r="B59" t="n">
-        <v>88899</v>
+        <v>90792</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7196,21 +7183,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>3286</v>
+        <v>4361</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7221,10 +7208,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>531970</v>
+        <v>531926</v>
       </c>
       <c r="R59" t="n">
-        <v>6553890</v>
+        <v>6554001</v>
       </c>
       <c r="S59" t="n">
         <v>5</v>
@@ -7256,7 +7243,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -7266,7 +7253,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7293,10 +7280,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>112243114</v>
+        <v>112242936</v>
       </c>
       <c r="B60" t="n">
-        <v>90687</v>
+        <v>89033</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7305,25 +7292,25 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>5964</v>
+        <v>3286</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7334,10 +7321,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>531959</v>
+        <v>531939</v>
       </c>
       <c r="R60" t="n">
-        <v>6554009</v>
+        <v>6554024</v>
       </c>
       <c r="S60" t="n">
         <v>5</v>
@@ -7369,7 +7356,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7379,7 +7366,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7406,10 +7393,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>112243011</v>
+        <v>112242889</v>
       </c>
       <c r="B61" t="n">
-        <v>90659</v>
+        <v>90843</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7418,25 +7405,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>786</v>
+        <v>5448</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Brandtaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Hydnellum auratile</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Britzelm.) Maas Geest.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7447,10 +7434,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>531965</v>
+        <v>531922</v>
       </c>
       <c r="R61" t="n">
-        <v>6554014</v>
+        <v>6553998</v>
       </c>
       <c r="S61" t="n">
         <v>5</v>
@@ -7482,7 +7469,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7492,7 +7479,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7519,10 +7506,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>112242889</v>
+        <v>112243066</v>
       </c>
       <c r="B62" t="n">
-        <v>90709</v>
+        <v>88992</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7531,25 +7518,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>5448</v>
+        <v>4188</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Fransig jordstjärna</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Geastrum fimbriatum</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>Fr.:Pers.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7560,10 +7547,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>531922</v>
+        <v>531959</v>
       </c>
       <c r="R62" t="n">
-        <v>6553998</v>
+        <v>6554023</v>
       </c>
       <c r="S62" t="n">
         <v>5</v>
@@ -7595,7 +7582,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7605,7 +7592,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7632,10 +7619,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>112242947</v>
+        <v>112244329</v>
       </c>
       <c r="B63" t="n">
-        <v>90678</v>
+        <v>96741</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7648,35 +7635,48 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>4366</v>
+        <v>219862</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
       <c r="P63" t="inlineStr">
         <is>
           <t>Skogalund (Skogalund), Nrk</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>531939</v>
+        <v>531956</v>
       </c>
       <c r="R63" t="n">
-        <v>6554024</v>
+        <v>6553998</v>
       </c>
       <c r="S63" t="n">
         <v>5</v>
@@ -7708,7 +7708,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>08:36</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7718,7 +7718,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>08:36</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7748,7 +7748,7 @@
         <v>112243471</v>
       </c>
       <c r="B64" t="n">
-        <v>88899</v>
+        <v>89033</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7855,6 +7855,119 @@
         </is>
       </c>
       <c r="AY64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>112313249</v>
+      </c>
+      <c r="B65" t="n">
+        <v>90155</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>6031</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Blomkålssvamp</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Sparassis crispa</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>(Wulfen:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>Skogalund (Skogalund), Nrk</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>531932</v>
+      </c>
+      <c r="R65" t="n">
+        <v>6553905</v>
+      </c>
+      <c r="S65" t="n">
+        <v>10</v>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="Z65" t="inlineStr">
+        <is>
+          <t>16:31</t>
+        </is>
+      </c>
+      <c r="AA65" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>16:31</t>
+        </is>
+      </c>
+      <c r="AD65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT65" t="inlineStr"/>
+      <c r="AW65" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AX65" t="inlineStr">
+        <is>
+          <t>Magnus Friberg</t>
+        </is>
+      </c>
+      <c r="AY65" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 18289-2019.xlsx
+++ b/artfynd/A 18289-2019.xlsx
@@ -2770,10 +2770,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112243771</v>
+        <v>112241965</v>
       </c>
       <c r="B20" t="n">
-        <v>89033</v>
+        <v>90793</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2782,25 +2782,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3286</v>
+        <v>786</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Brandtaggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hydnellum auratile</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Britzelm.) Maas Geest.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2811,10 +2811,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>532051</v>
+        <v>531987</v>
       </c>
       <c r="R20" t="n">
-        <v>6553962</v>
+        <v>6553869</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2846,7 +2846,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2883,10 +2883,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112241965</v>
+        <v>112243771</v>
       </c>
       <c r="B21" t="n">
-        <v>90793</v>
+        <v>89033</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2895,25 +2895,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>786</v>
+        <v>3286</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Brandtaggsvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum auratile</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Britzelm.) Maas Geest.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2924,10 +2924,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>531987</v>
+        <v>532051</v>
       </c>
       <c r="R21" t="n">
-        <v>6553869</v>
+        <v>6553962</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3109,10 +3109,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112243105</v>
+        <v>112243857</v>
       </c>
       <c r="B23" t="n">
-        <v>90792</v>
+        <v>90793</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3121,25 +3121,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4361</v>
+        <v>786</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Brandtaggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum auratile</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Britzelm.) Maas Geest.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3150,10 +3150,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>531959</v>
+        <v>532049</v>
       </c>
       <c r="R23" t="n">
-        <v>6554009</v>
+        <v>6553974</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3222,10 +3222,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112241951</v>
+        <v>112243105</v>
       </c>
       <c r="B24" t="n">
-        <v>90796</v>
+        <v>90792</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3234,25 +3234,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4363</v>
+        <v>4361</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>531987</v>
+        <v>531959</v>
       </c>
       <c r="R24" t="n">
-        <v>6553869</v>
+        <v>6554009</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3298,7 +3298,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3308,7 +3308,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3335,10 +3335,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112243011</v>
+        <v>112241951</v>
       </c>
       <c r="B25" t="n">
-        <v>90793</v>
+        <v>90796</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3347,25 +3347,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>786</v>
+        <v>4363</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Brandtaggsvamp</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hydnellum auratile</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Britzelm.) Maas Geest.</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3376,10 +3376,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>531965</v>
+        <v>531987</v>
       </c>
       <c r="R25" t="n">
-        <v>6554014</v>
+        <v>6553869</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3448,7 +3448,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112243857</v>
+        <v>112243011</v>
       </c>
       <c r="B26" t="n">
         <v>90793</v>
@@ -3489,10 +3489,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>532049</v>
+        <v>531965</v>
       </c>
       <c r="R26" t="n">
-        <v>6553974</v>
+        <v>6554014</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3524,7 +3524,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3534,7 +3534,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -4352,10 +4352,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112242906</v>
+        <v>112243107</v>
       </c>
       <c r="B34" t="n">
-        <v>90794</v>
+        <v>90793</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4364,25 +4364,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4362</v>
+        <v>786</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Brandtaggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum auratile</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Britzelm.) Maas Geest.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4393,10 +4393,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>531930</v>
+        <v>531959</v>
       </c>
       <c r="R34" t="n">
-        <v>6554013</v>
+        <v>6554009</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4428,7 +4428,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4438,7 +4438,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4465,10 +4465,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112242043</v>
+        <v>112242906</v>
       </c>
       <c r="B35" t="n">
-        <v>90513</v>
+        <v>90794</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4477,25 +4477,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5836</v>
+        <v>4362</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Guldkremla</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Russula aurea</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Pers.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4506,10 +4506,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>531966</v>
+        <v>531930</v>
       </c>
       <c r="R35" t="n">
-        <v>6553892</v>
+        <v>6554013</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4541,7 +4541,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4551,7 +4551,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4578,10 +4578,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112243107</v>
+        <v>112242043</v>
       </c>
       <c r="B36" t="n">
-        <v>90793</v>
+        <v>90513</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4590,25 +4590,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>786</v>
+        <v>5836</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Brandtaggsvamp</t>
+          <t>Guldkremla</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hydnellum auratile</t>
+          <t>Russula aurea</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Britzelm.) Maas Geest.</t>
+          <t>Pers.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4619,10 +4619,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>531959</v>
+        <v>531966</v>
       </c>
       <c r="R36" t="n">
-        <v>6554009</v>
+        <v>6553892</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4654,7 +4654,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4664,7 +4664,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -5595,10 +5595,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>112243877</v>
+        <v>112243283</v>
       </c>
       <c r="B45" t="n">
-        <v>90794</v>
+        <v>90821</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5607,25 +5607,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>4362</v>
+        <v>5964</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5636,10 +5636,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>532032</v>
+        <v>531986</v>
       </c>
       <c r="R45" t="n">
-        <v>6553976</v>
+        <v>6554001</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
@@ -5708,10 +5708,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>112243283</v>
+        <v>112243877</v>
       </c>
       <c r="B46" t="n">
-        <v>90821</v>
+        <v>90794</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5720,25 +5720,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5964</v>
+        <v>4362</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5749,10 +5749,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>531986</v>
+        <v>532032</v>
       </c>
       <c r="R46" t="n">
-        <v>6554001</v>
+        <v>6553976</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>

--- a/artfynd/A 18289-2019.xlsx
+++ b/artfynd/A 18289-2019.xlsx
@@ -2112,10 +2112,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112201331</v>
+        <v>112201510</v>
       </c>
       <c r="B14" t="n">
-        <v>90792</v>
+        <v>89047</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2128,21 +2128,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4361</v>
+        <v>3286</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>15:46</t>
+          <t>15:52</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>15:46</t>
+          <t>15:52</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2225,10 +2225,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112201510</v>
+        <v>112202053</v>
       </c>
       <c r="B15" t="n">
-        <v>89033</v>
+        <v>90806</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2241,21 +2241,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3286</v>
+        <v>4361</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>15:52</t>
+          <t>16:02</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>15:52</t>
+          <t>16:02</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2338,10 +2338,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112201397</v>
+        <v>112202051</v>
       </c>
       <c r="B16" t="n">
-        <v>90794</v>
+        <v>90808</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>16:02</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>16:02</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2454,7 +2454,7 @@
         <v>112202353</v>
       </c>
       <c r="B17" t="n">
-        <v>90793</v>
+        <v>90807</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         <v>112222199</v>
       </c>
       <c r="B18" t="n">
-        <v>90513</v>
+        <v>90527</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>112222262</v>
       </c>
       <c r="B19" t="n">
-        <v>85386</v>
+        <v>85400</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2770,10 +2770,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112241965</v>
+        <v>112243105</v>
       </c>
       <c r="B20" t="n">
-        <v>90793</v>
+        <v>90806</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2782,25 +2782,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>786</v>
+        <v>4361</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Brandtaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum auratile</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Britzelm.) Maas Geest.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2811,10 +2811,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>531987</v>
+        <v>531959</v>
       </c>
       <c r="R20" t="n">
-        <v>6553869</v>
+        <v>6554009</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2846,7 +2846,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2883,10 +2883,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112243771</v>
+        <v>112242900</v>
       </c>
       <c r="B21" t="n">
-        <v>89033</v>
+        <v>89047</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2924,10 +2924,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>532051</v>
+        <v>531930</v>
       </c>
       <c r="R21" t="n">
-        <v>6553962</v>
+        <v>6554013</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2996,10 +2996,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112241593</v>
+        <v>112243645</v>
       </c>
       <c r="B22" t="n">
-        <v>90844</v>
+        <v>90806</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3012,21 +3012,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5449</v>
+        <v>4361</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3037,10 +3037,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>532011</v>
+        <v>531993</v>
       </c>
       <c r="R22" t="n">
-        <v>6553969</v>
+        <v>6553966</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>08:48</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>08:48</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3109,10 +3109,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112243857</v>
+        <v>112241593</v>
       </c>
       <c r="B23" t="n">
-        <v>90793</v>
+        <v>90858</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3121,25 +3121,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>786</v>
+        <v>5449</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Brandtaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hydnellum auratile</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Britzelm.) Maas Geest.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3150,10 +3150,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>532049</v>
+        <v>532011</v>
       </c>
       <c r="R23" t="n">
-        <v>6553974</v>
+        <v>6553969</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3185,7 +3185,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>08:48</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3195,7 +3195,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>08:48</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3222,10 +3222,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112243105</v>
+        <v>112243107</v>
       </c>
       <c r="B24" t="n">
-        <v>90792</v>
+        <v>90807</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3234,25 +3234,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4361</v>
+        <v>786</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Brandtaggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum auratile</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Britzelm.) Maas Geest.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3338,7 +3338,7 @@
         <v>112241951</v>
       </c>
       <c r="B25" t="n">
-        <v>90796</v>
+        <v>90810</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3448,10 +3448,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112243011</v>
+        <v>112242868</v>
       </c>
       <c r="B26" t="n">
-        <v>90793</v>
+        <v>90806</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3460,25 +3460,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>786</v>
+        <v>4361</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Brandtaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hydnellum auratile</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Britzelm.) Maas Geest.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3489,10 +3489,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>531965</v>
+        <v>531922</v>
       </c>
       <c r="R26" t="n">
-        <v>6554014</v>
+        <v>6553998</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3524,7 +3524,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3534,7 +3534,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3561,10 +3561,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112244302</v>
+        <v>112242794</v>
       </c>
       <c r="B27" t="n">
-        <v>85386</v>
+        <v>90806</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3573,25 +3573,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1988</v>
+        <v>4361</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Kryddspindling</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Cortinarius percomis</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3602,10 +3602,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>531975</v>
+        <v>531920</v>
       </c>
       <c r="R27" t="n">
-        <v>6553885</v>
+        <v>6553954</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3647,7 +3647,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3674,10 +3674,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112243843</v>
+        <v>112242912</v>
       </c>
       <c r="B28" t="n">
-        <v>90812</v>
+        <v>90806</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3686,25 +3686,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4366</v>
+        <v>4361</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3715,10 +3715,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>532049</v>
+        <v>531926</v>
       </c>
       <c r="R28" t="n">
-        <v>6553974</v>
+        <v>6554001</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -3750,7 +3750,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3760,7 +3760,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3787,10 +3787,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112242916</v>
+        <v>112243288</v>
       </c>
       <c r="B29" t="n">
-        <v>90793</v>
+        <v>89047</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3799,25 +3799,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>786</v>
+        <v>3286</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Brandtaggsvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hydnellum auratile</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Britzelm.) Maas Geest.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3828,10 +3828,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>531925</v>
+        <v>531986</v>
       </c>
       <c r="R29" t="n">
-        <v>6554005</v>
+        <v>6554001</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -3863,7 +3863,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3873,7 +3873,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3900,10 +3900,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112243095</v>
+        <v>112243114</v>
       </c>
       <c r="B30" t="n">
-        <v>89033</v>
+        <v>90835</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3912,25 +3912,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>3286</v>
+        <v>5964</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3944,7 +3944,7 @@
         <v>531959</v>
       </c>
       <c r="R30" t="n">
-        <v>6554023</v>
+        <v>6554009</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -4013,10 +4013,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112243620</v>
+        <v>112242850</v>
       </c>
       <c r="B31" t="n">
-        <v>89033</v>
+        <v>89047</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4054,10 +4054,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>532009</v>
+        <v>531924</v>
       </c>
       <c r="R31" t="n">
-        <v>6553956</v>
+        <v>6554001</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4089,7 +4089,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4099,7 +4099,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4126,10 +4126,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112243148</v>
+        <v>112242936</v>
       </c>
       <c r="B32" t="n">
-        <v>89033</v>
+        <v>89047</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4167,10 +4167,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>531988</v>
+        <v>531939</v>
       </c>
       <c r="R32" t="n">
-        <v>6553995</v>
+        <v>6554024</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4202,7 +4202,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4212,7 +4212,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4239,10 +4239,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112242046</v>
+        <v>112241965</v>
       </c>
       <c r="B33" t="n">
-        <v>89033</v>
+        <v>90807</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4251,25 +4251,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>3286</v>
+        <v>786</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Brandtaggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hydnellum auratile</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Britzelm.) Maas Geest.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4280,10 +4280,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>531970</v>
+        <v>531987</v>
       </c>
       <c r="R33" t="n">
-        <v>6553890</v>
+        <v>6553869</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4352,10 +4352,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112243107</v>
+        <v>112243857</v>
       </c>
       <c r="B34" t="n">
-        <v>90793</v>
+        <v>90807</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4393,10 +4393,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>531959</v>
+        <v>532049</v>
       </c>
       <c r="R34" t="n">
-        <v>6554009</v>
+        <v>6553974</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4465,10 +4465,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112242906</v>
+        <v>112243095</v>
       </c>
       <c r="B35" t="n">
-        <v>90794</v>
+        <v>89047</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4481,21 +4481,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4362</v>
+        <v>3286</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4506,10 +4506,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>531930</v>
+        <v>531959</v>
       </c>
       <c r="R35" t="n">
-        <v>6554013</v>
+        <v>6554023</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4541,7 +4541,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4551,7 +4551,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4578,10 +4578,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112242043</v>
+        <v>112243620</v>
       </c>
       <c r="B36" t="n">
-        <v>90513</v>
+        <v>89047</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4590,25 +4590,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5836</v>
+        <v>3286</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Guldkremla</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Russula aurea</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Pers.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4619,10 +4619,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>531966</v>
+        <v>532009</v>
       </c>
       <c r="R36" t="n">
-        <v>6553892</v>
+        <v>6553956</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4654,7 +4654,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4664,7 +4664,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4691,10 +4691,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112242900</v>
+        <v>112243011</v>
       </c>
       <c r="B37" t="n">
-        <v>89033</v>
+        <v>90807</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4703,25 +4703,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>3286</v>
+        <v>786</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Brandtaggsvamp</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hydnellum auratile</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Britzelm.) Maas Geest.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4732,10 +4732,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>531930</v>
+        <v>531965</v>
       </c>
       <c r="R37" t="n">
-        <v>6554013</v>
+        <v>6554014</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -4767,7 +4767,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4804,10 +4804,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112243114</v>
+        <v>112241984</v>
       </c>
       <c r="B38" t="n">
-        <v>90821</v>
+        <v>89047</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4816,25 +4816,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5964</v>
+        <v>3286</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4845,10 +4845,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>531959</v>
+        <v>531987</v>
       </c>
       <c r="R38" t="n">
-        <v>6554009</v>
+        <v>6553869</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -4880,7 +4880,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4890,7 +4890,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4917,10 +4917,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112243314</v>
+        <v>112243794</v>
       </c>
       <c r="B39" t="n">
-        <v>90793</v>
+        <v>90806</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4929,25 +4929,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>786</v>
+        <v>4361</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Brandtaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hydnellum auratile</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Britzelm.) Maas Geest.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4958,10 +4958,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>531986</v>
+        <v>532049</v>
       </c>
       <c r="R39" t="n">
-        <v>6554002</v>
+        <v>6553974</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -5030,10 +5030,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112244141</v>
+        <v>112244302</v>
       </c>
       <c r="B40" t="n">
-        <v>85434</v>
+        <v>85400</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5042,25 +5042,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3739</v>
+        <v>1988</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Persiljespindling</t>
+          <t>Kryddspindling</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Cortinarius sulfurinus</t>
+          <t>Cortinarius percomis</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Quél.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5071,10 +5071,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>531979</v>
+        <v>531975</v>
       </c>
       <c r="R40" t="n">
-        <v>6553956</v>
+        <v>6553885</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -5143,10 +5143,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112243794</v>
+        <v>112243877</v>
       </c>
       <c r="B41" t="n">
-        <v>90792</v>
+        <v>90808</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5159,21 +5159,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5184,10 +5184,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>532049</v>
+        <v>532032</v>
       </c>
       <c r="R41" t="n">
-        <v>6553974</v>
+        <v>6553976</v>
       </c>
       <c r="S41" t="n">
         <v>5</v>
@@ -5256,10 +5256,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112242794</v>
+        <v>112244141</v>
       </c>
       <c r="B42" t="n">
-        <v>90792</v>
+        <v>85448</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5272,21 +5272,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4361</v>
+        <v>3739</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Persiljespindling</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Cortinarius sulfurinus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Quél.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5297,10 +5297,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>531920</v>
+        <v>531979</v>
       </c>
       <c r="R42" t="n">
-        <v>6553954</v>
+        <v>6553956</v>
       </c>
       <c r="S42" t="n">
         <v>5</v>
@@ -5332,7 +5332,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5369,10 +5369,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112242850</v>
+        <v>112242043</v>
       </c>
       <c r="B43" t="n">
-        <v>89033</v>
+        <v>90527</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5381,25 +5381,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>3286</v>
+        <v>5836</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Guldkremla</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Russula aurea</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>Pers.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>531924</v>
+        <v>531966</v>
       </c>
       <c r="R43" t="n">
-        <v>6554001</v>
+        <v>6553892</v>
       </c>
       <c r="S43" t="n">
         <v>5</v>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5455,7 +5455,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5482,10 +5482,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>112243161</v>
+        <v>112243267</v>
       </c>
       <c r="B44" t="n">
-        <v>89033</v>
+        <v>90806</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5498,21 +5498,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>3286</v>
+        <v>4361</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5523,10 +5523,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>531972</v>
+        <v>531986</v>
       </c>
       <c r="R44" t="n">
-        <v>6554005</v>
+        <v>6554001</v>
       </c>
       <c r="S44" t="n">
         <v>5</v>
@@ -5595,10 +5595,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>112243283</v>
+        <v>112243066</v>
       </c>
       <c r="B45" t="n">
-        <v>90821</v>
+        <v>89006</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5611,21 +5611,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>5964</v>
+        <v>4188</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Fransig jordstjärna</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Geastrum fimbriatum</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>Fr.:Pers.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5636,10 +5636,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>531986</v>
+        <v>531959</v>
       </c>
       <c r="R45" t="n">
-        <v>6554001</v>
+        <v>6554023</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
@@ -5708,10 +5708,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>112243877</v>
+        <v>112243148</v>
       </c>
       <c r="B46" t="n">
-        <v>90794</v>
+        <v>89047</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5724,21 +5724,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>4362</v>
+        <v>3286</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5749,10 +5749,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>532032</v>
+        <v>531988</v>
       </c>
       <c r="R46" t="n">
-        <v>6553976</v>
+        <v>6553995</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -5821,10 +5821,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>112242947</v>
+        <v>112242046</v>
       </c>
       <c r="B47" t="n">
-        <v>90812</v>
+        <v>89047</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5833,25 +5833,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4366</v>
+        <v>3286</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5862,10 +5862,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>531939</v>
+        <v>531970</v>
       </c>
       <c r="R47" t="n">
-        <v>6554024</v>
+        <v>6553890</v>
       </c>
       <c r="S47" t="n">
         <v>5</v>
@@ -5897,7 +5897,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5934,10 +5934,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112242935</v>
+        <v>112243471</v>
       </c>
       <c r="B48" t="n">
-        <v>90794</v>
+        <v>89047</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5950,21 +5950,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4362</v>
+        <v>3286</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5975,10 +5975,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>531939</v>
+        <v>532010</v>
       </c>
       <c r="R48" t="n">
-        <v>6554024</v>
+        <v>6553982</v>
       </c>
       <c r="S48" t="n">
         <v>5</v>
@@ -6010,7 +6010,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -6020,7 +6020,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6047,10 +6047,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>112253553</v>
+        <v>112243843</v>
       </c>
       <c r="B49" t="n">
-        <v>89090</v>
+        <v>90826</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6059,25 +6059,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5747</v>
+        <v>4366</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6088,10 +6088,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>532001</v>
+        <v>532049</v>
       </c>
       <c r="R49" t="n">
-        <v>6553934</v>
+        <v>6553974</v>
       </c>
       <c r="S49" t="n">
         <v>5</v>
@@ -6121,9 +6121,19 @@
           <t>2023-09-22</t>
         </is>
       </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
       <c r="AA49" t="inlineStr">
         <is>
           <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6150,10 +6160,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>112243645</v>
+        <v>112243314</v>
       </c>
       <c r="B50" t="n">
-        <v>90792</v>
+        <v>90807</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6162,25 +6172,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4361</v>
+        <v>786</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Brandtaggsvamp</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum auratile</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Britzelm.) Maas Geest.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6191,10 +6201,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>531993</v>
+        <v>531986</v>
       </c>
       <c r="R50" t="n">
-        <v>6553966</v>
+        <v>6554002</v>
       </c>
       <c r="S50" t="n">
         <v>5</v>
@@ -6263,10 +6273,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>112243267</v>
+        <v>112242947</v>
       </c>
       <c r="B51" t="n">
-        <v>90792</v>
+        <v>90826</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6275,25 +6285,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>4361</v>
+        <v>4366</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6304,10 +6314,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>531986</v>
+        <v>531939</v>
       </c>
       <c r="R51" t="n">
-        <v>6554001</v>
+        <v>6554024</v>
       </c>
       <c r="S51" t="n">
         <v>5</v>
@@ -6339,7 +6349,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6349,7 +6359,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6376,10 +6386,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>112242868</v>
+        <v>112242916</v>
       </c>
       <c r="B52" t="n">
-        <v>90792</v>
+        <v>90807</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6388,25 +6398,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>4361</v>
+        <v>786</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Brandtaggsvamp</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum auratile</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Britzelm.) Maas Geest.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6417,10 +6427,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>531922</v>
+        <v>531925</v>
       </c>
       <c r="R52" t="n">
-        <v>6553998</v>
+        <v>6554005</v>
       </c>
       <c r="S52" t="n">
         <v>5</v>
@@ -6489,10 +6499,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>112243591</v>
+        <v>112243623</v>
       </c>
       <c r="B53" t="n">
-        <v>90792</v>
+        <v>90807</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6501,25 +6511,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>4361</v>
+        <v>786</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Brandtaggsvamp</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum auratile</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Britzelm.) Maas Geest.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6530,10 +6540,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>531991</v>
+        <v>532009</v>
       </c>
       <c r="R53" t="n">
-        <v>6553984</v>
+        <v>6553956</v>
       </c>
       <c r="S53" t="n">
         <v>5</v>
@@ -6602,10 +6612,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>112242810</v>
+        <v>112242889</v>
       </c>
       <c r="B54" t="n">
-        <v>89033</v>
+        <v>90857</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6618,21 +6628,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>3286</v>
+        <v>5448</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6643,10 +6653,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>531928</v>
+        <v>531922</v>
       </c>
       <c r="R54" t="n">
-        <v>6553976</v>
+        <v>6553998</v>
       </c>
       <c r="S54" t="n">
         <v>5</v>
@@ -6715,10 +6725,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>112241984</v>
+        <v>112242004</v>
       </c>
       <c r="B55" t="n">
-        <v>89033</v>
+        <v>89047</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6759,7 +6769,7 @@
         <v>531987</v>
       </c>
       <c r="R55" t="n">
-        <v>6553869</v>
+        <v>6553873</v>
       </c>
       <c r="S55" t="n">
         <v>5</v>
@@ -6828,10 +6838,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>112242004</v>
+        <v>112242810</v>
       </c>
       <c r="B56" t="n">
-        <v>89033</v>
+        <v>89047</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6869,10 +6879,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>531987</v>
+        <v>531928</v>
       </c>
       <c r="R56" t="n">
-        <v>6553873</v>
+        <v>6553976</v>
       </c>
       <c r="S56" t="n">
         <v>5</v>
@@ -6904,7 +6914,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -6914,7 +6924,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6941,10 +6951,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>112243623</v>
+        <v>112253553</v>
       </c>
       <c r="B57" t="n">
-        <v>90793</v>
+        <v>89104</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6957,21 +6967,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>786</v>
+        <v>5747</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Brandtaggsvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Hydnellum auratile</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Britzelm.) Maas Geest.</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6982,10 +6992,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>532009</v>
+        <v>532001</v>
       </c>
       <c r="R57" t="n">
-        <v>6553956</v>
+        <v>6553934</v>
       </c>
       <c r="S57" t="n">
         <v>5</v>
@@ -7015,19 +7025,9 @@
           <t>2023-09-22</t>
         </is>
       </c>
-      <c r="Z57" t="inlineStr">
-        <is>
-          <t>10:05</t>
-        </is>
-      </c>
       <c r="AA57" t="inlineStr">
         <is>
           <t>2023-09-22</t>
-        </is>
-      </c>
-      <c r="AB57" t="inlineStr">
-        <is>
-          <t>10:05</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7054,10 +7054,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>112243288</v>
+        <v>112242935</v>
       </c>
       <c r="B58" t="n">
-        <v>89033</v>
+        <v>90808</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7070,21 +7070,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>3286</v>
+        <v>4362</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7095,10 +7095,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>531986</v>
+        <v>531939</v>
       </c>
       <c r="R58" t="n">
-        <v>6554001</v>
+        <v>6554024</v>
       </c>
       <c r="S58" t="n">
         <v>5</v>
@@ -7130,7 +7130,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7167,10 +7167,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>112242912</v>
+        <v>112243771</v>
       </c>
       <c r="B59" t="n">
-        <v>90792</v>
+        <v>89047</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7183,21 +7183,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>4361</v>
+        <v>3286</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7208,10 +7208,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>531926</v>
+        <v>532051</v>
       </c>
       <c r="R59" t="n">
-        <v>6554001</v>
+        <v>6553962</v>
       </c>
       <c r="S59" t="n">
         <v>5</v>
@@ -7243,7 +7243,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -7253,7 +7253,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7280,10 +7280,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>112242936</v>
+        <v>112243161</v>
       </c>
       <c r="B60" t="n">
-        <v>89033</v>
+        <v>89047</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7321,10 +7321,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>531939</v>
+        <v>531972</v>
       </c>
       <c r="R60" t="n">
-        <v>6554024</v>
+        <v>6554005</v>
       </c>
       <c r="S60" t="n">
         <v>5</v>
@@ -7356,7 +7356,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7366,7 +7366,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7393,10 +7393,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>112242889</v>
+        <v>112244329</v>
       </c>
       <c r="B61" t="n">
-        <v>90843</v>
+        <v>96756</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7405,36 +7405,49 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>5448</v>
+        <v>219862</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr">
         <is>
           <t>Skogalund (Skogalund), Nrk</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>531922</v>
+        <v>531956</v>
       </c>
       <c r="R61" t="n">
         <v>6553998</v>
@@ -7469,7 +7482,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>08:36</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7479,7 +7492,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>08:36</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7506,10 +7519,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>112243066</v>
+        <v>112243283</v>
       </c>
       <c r="B62" t="n">
-        <v>88992</v>
+        <v>90835</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7522,21 +7535,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>4188</v>
+        <v>5964</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Fransig jordstjärna</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Geastrum fimbriatum</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Fr.:Pers.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7547,10 +7560,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>531959</v>
+        <v>531986</v>
       </c>
       <c r="R62" t="n">
-        <v>6554023</v>
+        <v>6554001</v>
       </c>
       <c r="S62" t="n">
         <v>5</v>
@@ -7619,10 +7632,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>112244329</v>
+        <v>112242906</v>
       </c>
       <c r="B63" t="n">
-        <v>96741</v>
+        <v>90808</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7631,52 +7644,39 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>219862</v>
+        <v>4362</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
           <t>Skogalund (Skogalund), Nrk</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>531956</v>
+        <v>531930</v>
       </c>
       <c r="R63" t="n">
-        <v>6553998</v>
+        <v>6554013</v>
       </c>
       <c r="S63" t="n">
         <v>5</v>
@@ -7708,7 +7708,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>08:36</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7718,7 +7718,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>08:36</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7745,10 +7745,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>112243471</v>
+        <v>112243591</v>
       </c>
       <c r="B64" t="n">
-        <v>89033</v>
+        <v>90806</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7761,21 +7761,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>3286</v>
+        <v>4361</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7786,10 +7786,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>532010</v>
+        <v>531991</v>
       </c>
       <c r="R64" t="n">
-        <v>6553982</v>
+        <v>6553984</v>
       </c>
       <c r="S64" t="n">
         <v>5</v>
@@ -7861,7 +7861,7 @@
         <v>112313249</v>
       </c>
       <c r="B65" t="n">
-        <v>90155</v>
+        <v>90169</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>

--- a/artfynd/A 18289-2019.xlsx
+++ b/artfynd/A 18289-2019.xlsx
@@ -2112,10 +2112,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112201510</v>
+        <v>112201397</v>
       </c>
       <c r="B14" t="n">
-        <v>89047</v>
+        <v>90808</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2128,21 +2128,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3286</v>
+        <v>4362</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>15:52</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>15:52</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2225,10 +2225,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112202053</v>
+        <v>112202353</v>
       </c>
       <c r="B15" t="n">
-        <v>90806</v>
+        <v>90807</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2237,25 +2237,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4361</v>
+        <v>786</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Brandtaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum auratile</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Britzelm.) Maas Geest.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2266,10 +2266,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>531944</v>
+        <v>532058</v>
       </c>
       <c r="R15" t="n">
-        <v>6554005</v>
+        <v>6553948</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>16:02</t>
+          <t>16:52</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>16:02</t>
+          <t>16:52</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2338,10 +2338,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112202051</v>
+        <v>112202053</v>
       </c>
       <c r="B16" t="n">
-        <v>90808</v>
+        <v>90806</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2354,21 +2354,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2451,10 +2451,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112202353</v>
+        <v>112201510</v>
       </c>
       <c r="B17" t="n">
-        <v>90807</v>
+        <v>89047</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2463,25 +2463,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>786</v>
+        <v>3286</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Brandtaggsvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum auratile</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Britzelm.) Maas Geest.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2492,10 +2492,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>532058</v>
+        <v>531944</v>
       </c>
       <c r="R17" t="n">
-        <v>6553948</v>
+        <v>6554005</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>16:52</t>
+          <t>15:52</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2537,7 +2537,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>16:52</t>
+          <t>15:52</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2564,10 +2564,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112222199</v>
+        <v>112222262</v>
       </c>
       <c r="B18" t="n">
-        <v>90527</v>
+        <v>85400</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2580,21 +2580,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5836</v>
+        <v>1988</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Guldkremla</t>
+          <t>Kryddspindling</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Russula aurea</t>
+          <t>Cortinarius percomis</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Pers.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2667,10 +2667,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112222262</v>
+        <v>112222199</v>
       </c>
       <c r="B19" t="n">
-        <v>85400</v>
+        <v>90527</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2683,21 +2683,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1988</v>
+        <v>5836</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Kryddspindling</t>
+          <t>Guldkremla</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Cortinarius percomis</t>
+          <t>Russula aurea</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>Pers.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2770,10 +2770,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112243105</v>
+        <v>112241984</v>
       </c>
       <c r="B20" t="n">
-        <v>90806</v>
+        <v>89047</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2786,21 +2786,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4361</v>
+        <v>3286</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2811,10 +2811,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>531959</v>
+        <v>531987</v>
       </c>
       <c r="R20" t="n">
-        <v>6554009</v>
+        <v>6553869</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2846,7 +2846,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2883,10 +2883,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112242900</v>
+        <v>112243877</v>
       </c>
       <c r="B21" t="n">
-        <v>89047</v>
+        <v>90808</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2899,21 +2899,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3286</v>
+        <v>4362</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2924,10 +2924,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>531930</v>
+        <v>532032</v>
       </c>
       <c r="R21" t="n">
-        <v>6554013</v>
+        <v>6553976</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2996,10 +2996,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112243645</v>
+        <v>112243148</v>
       </c>
       <c r="B22" t="n">
-        <v>90806</v>
+        <v>89047</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3012,21 +3012,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4361</v>
+        <v>3286</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3037,10 +3037,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>531993</v>
+        <v>531988</v>
       </c>
       <c r="R22" t="n">
-        <v>6553966</v>
+        <v>6553995</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3109,10 +3109,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112241593</v>
+        <v>112243267</v>
       </c>
       <c r="B23" t="n">
-        <v>90858</v>
+        <v>90806</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3125,21 +3125,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5449</v>
+        <v>4361</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3150,10 +3150,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>532011</v>
+        <v>531986</v>
       </c>
       <c r="R23" t="n">
-        <v>6553969</v>
+        <v>6554001</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3185,7 +3185,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>08:48</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3195,7 +3195,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>08:48</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3222,10 +3222,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112243107</v>
+        <v>112243471</v>
       </c>
       <c r="B24" t="n">
-        <v>90807</v>
+        <v>89047</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3234,25 +3234,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>786</v>
+        <v>3286</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Brandtaggsvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hydnellum auratile</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Britzelm.) Maas Geest.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>531959</v>
+        <v>532010</v>
       </c>
       <c r="R24" t="n">
-        <v>6554009</v>
+        <v>6553982</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3335,10 +3335,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112241951</v>
+        <v>112243843</v>
       </c>
       <c r="B25" t="n">
-        <v>90810</v>
+        <v>90826</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3351,21 +3351,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4363</v>
+        <v>4366</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3376,10 +3376,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>531987</v>
+        <v>532049</v>
       </c>
       <c r="R25" t="n">
-        <v>6553869</v>
+        <v>6553974</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3448,10 +3448,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112242868</v>
+        <v>112241593</v>
       </c>
       <c r="B26" t="n">
-        <v>90806</v>
+        <v>90858</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3464,21 +3464,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4361</v>
+        <v>5449</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3489,10 +3489,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>531922</v>
+        <v>532011</v>
       </c>
       <c r="R26" t="n">
-        <v>6553998</v>
+        <v>6553969</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3524,7 +3524,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>08:48</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3534,7 +3534,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>08:48</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3561,10 +3561,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112242794</v>
+        <v>112241965</v>
       </c>
       <c r="B27" t="n">
-        <v>90806</v>
+        <v>90807</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3573,25 +3573,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4361</v>
+        <v>786</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Brandtaggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum auratile</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Britzelm.) Maas Geest.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3602,10 +3602,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>531920</v>
+        <v>531987</v>
       </c>
       <c r="R27" t="n">
-        <v>6553954</v>
+        <v>6553869</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3647,7 +3647,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3674,10 +3674,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112242912</v>
+        <v>112241951</v>
       </c>
       <c r="B28" t="n">
-        <v>90806</v>
+        <v>90810</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3686,25 +3686,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4361</v>
+        <v>4363</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3715,10 +3715,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>531926</v>
+        <v>531987</v>
       </c>
       <c r="R28" t="n">
-        <v>6554001</v>
+        <v>6553869</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -3750,7 +3750,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3760,7 +3760,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3787,10 +3787,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112243288</v>
+        <v>112243794</v>
       </c>
       <c r="B29" t="n">
-        <v>89047</v>
+        <v>90806</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3803,21 +3803,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3286</v>
+        <v>4361</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3828,10 +3828,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>531986</v>
+        <v>532049</v>
       </c>
       <c r="R29" t="n">
-        <v>6554001</v>
+        <v>6553974</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -3900,10 +3900,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112243114</v>
+        <v>112242936</v>
       </c>
       <c r="B30" t="n">
-        <v>90835</v>
+        <v>89047</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3912,25 +3912,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5964</v>
+        <v>3286</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3941,10 +3941,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>531959</v>
+        <v>531939</v>
       </c>
       <c r="R30" t="n">
-        <v>6554009</v>
+        <v>6554024</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4013,7 +4013,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112242850</v>
+        <v>112242046</v>
       </c>
       <c r="B31" t="n">
         <v>89047</v>
@@ -4054,10 +4054,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>531924</v>
+        <v>531970</v>
       </c>
       <c r="R31" t="n">
-        <v>6554001</v>
+        <v>6553890</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4089,7 +4089,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4099,7 +4099,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4126,10 +4126,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112242936</v>
+        <v>112243066</v>
       </c>
       <c r="B32" t="n">
-        <v>89047</v>
+        <v>89006</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4138,25 +4138,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>3286</v>
+        <v>4188</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Fransig jordstjärna</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Geastrum fimbriatum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>Fr.:Pers.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4167,10 +4167,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>531939</v>
+        <v>531959</v>
       </c>
       <c r="R32" t="n">
-        <v>6554024</v>
+        <v>6554023</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4202,7 +4202,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4212,7 +4212,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4239,10 +4239,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112241965</v>
+        <v>112243645</v>
       </c>
       <c r="B33" t="n">
-        <v>90807</v>
+        <v>90806</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4251,25 +4251,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>786</v>
+        <v>4361</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Brandtaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hydnellum auratile</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Britzelm.) Maas Geest.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4280,10 +4280,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>531987</v>
+        <v>531993</v>
       </c>
       <c r="R33" t="n">
-        <v>6553869</v>
+        <v>6553966</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4315,7 +4315,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4325,7 +4325,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4352,10 +4352,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112243857</v>
+        <v>112242043</v>
       </c>
       <c r="B34" t="n">
-        <v>90807</v>
+        <v>90527</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4364,25 +4364,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>786</v>
+        <v>5836</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Brandtaggsvamp</t>
+          <t>Guldkremla</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hydnellum auratile</t>
+          <t>Russula aurea</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Britzelm.) Maas Geest.</t>
+          <t>Pers.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4393,10 +4393,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>532049</v>
+        <v>531966</v>
       </c>
       <c r="R34" t="n">
-        <v>6553974</v>
+        <v>6553892</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4428,7 +4428,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4438,7 +4438,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4465,10 +4465,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112243095</v>
+        <v>112242912</v>
       </c>
       <c r="B35" t="n">
-        <v>89047</v>
+        <v>90806</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4481,21 +4481,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3286</v>
+        <v>4361</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4506,10 +4506,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>531959</v>
+        <v>531926</v>
       </c>
       <c r="R35" t="n">
-        <v>6554023</v>
+        <v>6554001</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4541,7 +4541,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4551,7 +4551,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4578,7 +4578,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112243620</v>
+        <v>112242004</v>
       </c>
       <c r="B36" t="n">
         <v>89047</v>
@@ -4619,10 +4619,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>532009</v>
+        <v>531987</v>
       </c>
       <c r="R36" t="n">
-        <v>6553956</v>
+        <v>6553873</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4654,7 +4654,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4664,7 +4664,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4691,10 +4691,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112243011</v>
+        <v>112243620</v>
       </c>
       <c r="B37" t="n">
-        <v>90807</v>
+        <v>89047</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4703,25 +4703,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>786</v>
+        <v>3286</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Brandtaggsvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hydnellum auratile</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Britzelm.) Maas Geest.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4732,10 +4732,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>531965</v>
+        <v>532009</v>
       </c>
       <c r="R37" t="n">
-        <v>6554014</v>
+        <v>6553956</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -4767,7 +4767,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4804,10 +4804,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112241984</v>
+        <v>112244329</v>
       </c>
       <c r="B38" t="n">
-        <v>89047</v>
+        <v>96756</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4816,39 +4816,52 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>3286</v>
+        <v>219862</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr">
         <is>
           <t>Skogalund (Skogalund), Nrk</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>531987</v>
+        <v>531956</v>
       </c>
       <c r="R38" t="n">
-        <v>6553869</v>
+        <v>6553998</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -4880,7 +4893,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>08:36</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4890,7 +4903,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>08:36</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4917,10 +4930,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112243794</v>
+        <v>112253553</v>
       </c>
       <c r="B39" t="n">
-        <v>90806</v>
+        <v>89104</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4929,25 +4942,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4361</v>
+        <v>5747</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4958,10 +4971,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>532049</v>
+        <v>532001</v>
       </c>
       <c r="R39" t="n">
-        <v>6553974</v>
+        <v>6553934</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -4991,19 +5004,9 @@
           <t>2023-09-22</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>10:05</t>
-        </is>
-      </c>
       <c r="AA39" t="inlineStr">
         <is>
           <t>2023-09-22</t>
-        </is>
-      </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>10:05</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5143,10 +5146,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112243877</v>
+        <v>112242916</v>
       </c>
       <c r="B41" t="n">
-        <v>90808</v>
+        <v>90807</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5155,25 +5158,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>4362</v>
+        <v>786</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Brandtaggsvamp</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum auratile</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Britzelm.) Maas Geest.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5184,10 +5187,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>532032</v>
+        <v>531925</v>
       </c>
       <c r="R41" t="n">
-        <v>6553976</v>
+        <v>6554005</v>
       </c>
       <c r="S41" t="n">
         <v>5</v>
@@ -5219,7 +5222,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5229,7 +5232,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5256,10 +5259,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112244141</v>
+        <v>112242889</v>
       </c>
       <c r="B42" t="n">
-        <v>85448</v>
+        <v>90857</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5272,21 +5275,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>3739</v>
+        <v>5448</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Persiljespindling</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Cortinarius sulfurinus</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Quél.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5297,10 +5300,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>531979</v>
+        <v>531922</v>
       </c>
       <c r="R42" t="n">
-        <v>6553956</v>
+        <v>6553998</v>
       </c>
       <c r="S42" t="n">
         <v>5</v>
@@ -5332,7 +5335,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5342,7 +5345,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5369,10 +5372,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112242043</v>
+        <v>112242794</v>
       </c>
       <c r="B43" t="n">
-        <v>90527</v>
+        <v>90806</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5381,25 +5384,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5836</v>
+        <v>4361</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Guldkremla</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Russula aurea</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Pers.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5410,10 +5413,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>531966</v>
+        <v>531920</v>
       </c>
       <c r="R43" t="n">
-        <v>6553892</v>
+        <v>6553954</v>
       </c>
       <c r="S43" t="n">
         <v>5</v>
@@ -5445,7 +5448,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5455,7 +5458,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5482,10 +5485,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>112243267</v>
+        <v>112242850</v>
       </c>
       <c r="B44" t="n">
-        <v>90806</v>
+        <v>89047</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5498,21 +5501,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>4361</v>
+        <v>3286</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5523,7 +5526,7 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>531986</v>
+        <v>531924</v>
       </c>
       <c r="R44" t="n">
         <v>6554001</v>
@@ -5558,7 +5561,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5568,7 +5571,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5595,10 +5598,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>112243066</v>
+        <v>112243161</v>
       </c>
       <c r="B45" t="n">
-        <v>89006</v>
+        <v>89047</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5607,25 +5610,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>4188</v>
+        <v>3286</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Fransig jordstjärna</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Geastrum fimbriatum</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Fr.:Pers.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5636,10 +5639,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>531959</v>
+        <v>531972</v>
       </c>
       <c r="R45" t="n">
-        <v>6554023</v>
+        <v>6554005</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
@@ -5708,10 +5711,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>112243148</v>
+        <v>112243283</v>
       </c>
       <c r="B46" t="n">
-        <v>89047</v>
+        <v>90835</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5720,25 +5723,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3286</v>
+        <v>5964</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5749,10 +5752,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>531988</v>
+        <v>531986</v>
       </c>
       <c r="R46" t="n">
-        <v>6553995</v>
+        <v>6554001</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -5821,10 +5824,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>112242046</v>
+        <v>112242906</v>
       </c>
       <c r="B47" t="n">
-        <v>89047</v>
+        <v>90808</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5837,21 +5840,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>3286</v>
+        <v>4362</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5862,10 +5865,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>531970</v>
+        <v>531930</v>
       </c>
       <c r="R47" t="n">
-        <v>6553890</v>
+        <v>6554013</v>
       </c>
       <c r="S47" t="n">
         <v>5</v>
@@ -5897,7 +5900,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5907,7 +5910,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5934,7 +5937,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112243471</v>
+        <v>112242900</v>
       </c>
       <c r="B48" t="n">
         <v>89047</v>
@@ -5975,10 +5978,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>532010</v>
+        <v>531930</v>
       </c>
       <c r="R48" t="n">
-        <v>6553982</v>
+        <v>6554013</v>
       </c>
       <c r="S48" t="n">
         <v>5</v>
@@ -6010,7 +6013,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -6020,7 +6023,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6047,10 +6050,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>112243843</v>
+        <v>112242935</v>
       </c>
       <c r="B49" t="n">
-        <v>90826</v>
+        <v>90808</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6059,25 +6062,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4366</v>
+        <v>4362</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6088,10 +6091,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>532049</v>
+        <v>531939</v>
       </c>
       <c r="R49" t="n">
-        <v>6553974</v>
+        <v>6554024</v>
       </c>
       <c r="S49" t="n">
         <v>5</v>
@@ -6123,7 +6126,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -6133,7 +6136,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6160,7 +6163,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>112243314</v>
+        <v>112243011</v>
       </c>
       <c r="B50" t="n">
         <v>90807</v>
@@ -6201,10 +6204,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>531986</v>
+        <v>531965</v>
       </c>
       <c r="R50" t="n">
-        <v>6554002</v>
+        <v>6554014</v>
       </c>
       <c r="S50" t="n">
         <v>5</v>
@@ -6236,7 +6239,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6246,7 +6249,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6273,10 +6276,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>112242947</v>
+        <v>112244141</v>
       </c>
       <c r="B51" t="n">
-        <v>90826</v>
+        <v>85448</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6285,25 +6288,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>4366</v>
+        <v>3739</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Persiljespindling</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Cortinarius sulfurinus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>Quél.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6314,10 +6317,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>531939</v>
+        <v>531979</v>
       </c>
       <c r="R51" t="n">
-        <v>6554024</v>
+        <v>6553956</v>
       </c>
       <c r="S51" t="n">
         <v>5</v>
@@ -6349,7 +6352,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6359,7 +6362,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6386,7 +6389,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>112242916</v>
+        <v>112243107</v>
       </c>
       <c r="B52" t="n">
         <v>90807</v>
@@ -6427,10 +6430,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>531925</v>
+        <v>531959</v>
       </c>
       <c r="R52" t="n">
-        <v>6554005</v>
+        <v>6554009</v>
       </c>
       <c r="S52" t="n">
         <v>5</v>
@@ -6462,7 +6465,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6472,7 +6475,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6499,10 +6502,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>112243623</v>
+        <v>112242868</v>
       </c>
       <c r="B53" t="n">
-        <v>90807</v>
+        <v>90806</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6511,25 +6514,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>786</v>
+        <v>4361</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Brandtaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hydnellum auratile</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Britzelm.) Maas Geest.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6540,10 +6543,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>532009</v>
+        <v>531922</v>
       </c>
       <c r="R53" t="n">
-        <v>6553956</v>
+        <v>6553998</v>
       </c>
       <c r="S53" t="n">
         <v>5</v>
@@ -6575,7 +6578,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6585,7 +6588,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6612,10 +6615,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>112242889</v>
+        <v>112242947</v>
       </c>
       <c r="B54" t="n">
-        <v>90857</v>
+        <v>90826</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6624,25 +6627,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>5448</v>
+        <v>4366</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6653,10 +6656,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>531922</v>
+        <v>531939</v>
       </c>
       <c r="R54" t="n">
-        <v>6553998</v>
+        <v>6554024</v>
       </c>
       <c r="S54" t="n">
         <v>5</v>
@@ -6725,7 +6728,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>112242004</v>
+        <v>112243095</v>
       </c>
       <c r="B55" t="n">
         <v>89047</v>
@@ -6766,10 +6769,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>531987</v>
+        <v>531959</v>
       </c>
       <c r="R55" t="n">
-        <v>6553873</v>
+        <v>6554023</v>
       </c>
       <c r="S55" t="n">
         <v>5</v>
@@ -6801,7 +6804,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6811,7 +6814,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6838,10 +6841,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>112242810</v>
+        <v>112243623</v>
       </c>
       <c r="B56" t="n">
-        <v>89047</v>
+        <v>90807</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6850,25 +6853,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>3286</v>
+        <v>786</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Brandtaggsvamp</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hydnellum auratile</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Britzelm.) Maas Geest.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6879,10 +6882,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>531928</v>
+        <v>532009</v>
       </c>
       <c r="R56" t="n">
-        <v>6553976</v>
+        <v>6553956</v>
       </c>
       <c r="S56" t="n">
         <v>5</v>
@@ -6914,7 +6917,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -6924,7 +6927,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6951,10 +6954,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>112253553</v>
+        <v>112243771</v>
       </c>
       <c r="B57" t="n">
-        <v>89104</v>
+        <v>89047</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6963,25 +6966,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>5747</v>
+        <v>3286</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6992,10 +6995,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>532001</v>
+        <v>532051</v>
       </c>
       <c r="R57" t="n">
-        <v>6553934</v>
+        <v>6553962</v>
       </c>
       <c r="S57" t="n">
         <v>5</v>
@@ -7025,9 +7028,19 @@
           <t>2023-09-22</t>
         </is>
       </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
       <c r="AA57" t="inlineStr">
         <is>
           <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7054,10 +7067,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>112242935</v>
+        <v>112242810</v>
       </c>
       <c r="B58" t="n">
-        <v>90808</v>
+        <v>89047</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7070,21 +7083,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>4362</v>
+        <v>3286</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7095,10 +7108,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>531939</v>
+        <v>531928</v>
       </c>
       <c r="R58" t="n">
-        <v>6554024</v>
+        <v>6553976</v>
       </c>
       <c r="S58" t="n">
         <v>5</v>
@@ -7167,10 +7180,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>112243771</v>
+        <v>112243105</v>
       </c>
       <c r="B59" t="n">
-        <v>89047</v>
+        <v>90806</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7183,21 +7196,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>3286</v>
+        <v>4361</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7208,10 +7221,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>532051</v>
+        <v>531959</v>
       </c>
       <c r="R59" t="n">
-        <v>6553962</v>
+        <v>6554009</v>
       </c>
       <c r="S59" t="n">
         <v>5</v>
@@ -7280,7 +7293,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>112243161</v>
+        <v>112243288</v>
       </c>
       <c r="B60" t="n">
         <v>89047</v>
@@ -7321,10 +7334,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>531972</v>
+        <v>531986</v>
       </c>
       <c r="R60" t="n">
-        <v>6554005</v>
+        <v>6554001</v>
       </c>
       <c r="S60" t="n">
         <v>5</v>
@@ -7393,10 +7406,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>112244329</v>
+        <v>112243591</v>
       </c>
       <c r="B61" t="n">
-        <v>96756</v>
+        <v>90806</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7405,52 +7418,39 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>219862</v>
+        <v>4361</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
           <t>Skogalund (Skogalund), Nrk</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>531956</v>
+        <v>531991</v>
       </c>
       <c r="R61" t="n">
-        <v>6553998</v>
+        <v>6553984</v>
       </c>
       <c r="S61" t="n">
         <v>5</v>
@@ -7482,7 +7482,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>08:36</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7492,7 +7492,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>08:36</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7519,7 +7519,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>112243283</v>
+        <v>112243114</v>
       </c>
       <c r="B62" t="n">
         <v>90835</v>
@@ -7560,10 +7560,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>531986</v>
+        <v>531959</v>
       </c>
       <c r="R62" t="n">
-        <v>6554001</v>
+        <v>6554009</v>
       </c>
       <c r="S62" t="n">
         <v>5</v>
@@ -7632,10 +7632,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>112242906</v>
+        <v>112243857</v>
       </c>
       <c r="B63" t="n">
-        <v>90808</v>
+        <v>90807</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7644,25 +7644,25 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>4362</v>
+        <v>786</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Brandtaggsvamp</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum auratile</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Britzelm.) Maas Geest.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7673,10 +7673,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>531930</v>
+        <v>532049</v>
       </c>
       <c r="R63" t="n">
-        <v>6554013</v>
+        <v>6553974</v>
       </c>
       <c r="S63" t="n">
         <v>5</v>
@@ -7708,7 +7708,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7718,7 +7718,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7745,10 +7745,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>112243591</v>
+        <v>112243314</v>
       </c>
       <c r="B64" t="n">
-        <v>90806</v>
+        <v>90807</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7757,25 +7757,25 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>4361</v>
+        <v>786</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Brandtaggsvamp</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum auratile</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Britzelm.) Maas Geest.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7786,10 +7786,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>531991</v>
+        <v>531986</v>
       </c>
       <c r="R64" t="n">
-        <v>6553984</v>
+        <v>6554002</v>
       </c>
       <c r="S64" t="n">
         <v>5</v>

--- a/artfynd/A 18289-2019.xlsx
+++ b/artfynd/A 18289-2019.xlsx
@@ -4930,10 +4930,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112253553</v>
+        <v>112244302</v>
       </c>
       <c r="B39" t="n">
-        <v>89104</v>
+        <v>85400</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4942,25 +4942,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5747</v>
+        <v>1988</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Kryddspindling</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Cortinarius percomis</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4971,10 +4971,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>532001</v>
+        <v>531975</v>
       </c>
       <c r="R39" t="n">
-        <v>6553934</v>
+        <v>6553885</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -5004,9 +5004,19 @@
           <t>2023-09-22</t>
         </is>
       </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
       <c r="AA39" t="inlineStr">
         <is>
           <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5033,10 +5043,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112244302</v>
+        <v>112253553</v>
       </c>
       <c r="B40" t="n">
-        <v>85400</v>
+        <v>89104</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5045,25 +5055,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1988</v>
+        <v>5747</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Kryddspindling</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Cortinarius percomis</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5074,10 +5084,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>531975</v>
+        <v>532001</v>
       </c>
       <c r="R40" t="n">
-        <v>6553885</v>
+        <v>6553934</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -5107,19 +5117,9 @@
           <t>2023-09-22</t>
         </is>
       </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>10:05</t>
-        </is>
-      </c>
       <c r="AA40" t="inlineStr">
         <is>
           <t>2023-09-22</t>
-        </is>
-      </c>
-      <c r="AB40" t="inlineStr">
-        <is>
-          <t>10:05</t>
         </is>
       </c>
       <c r="AD40" t="b">
